--- a/medicine/Enfance/Gaëtan_Dorémus/Gaëtan_Dorémus.xlsx
+++ b/medicine/Enfance/Gaëtan_Dorémus/Gaëtan_Dorémus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ga%C3%ABtan_Dor%C3%A9mus</t>
+          <t>Gaëtan_Dorémus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gaëtan Dorémus, né le 20 novembre 1976 à Lille[1], est un illustrateur et un auteur jeunesse français[2]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gaëtan Dorémus, né le 20 novembre 1976 à Lille, est un illustrateur et un auteur jeunesse français
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ga%C3%ABtan_Dor%C3%A9mus</t>
+          <t>Gaëtan_Dorémus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaëtan Dorémus est diplômé de l’atelier d’illustration de l'École supérieure des arts décoratifs de Strasbourg en 1999, où il est également enseignant depuis 2003[réf. souhaitée].
 Il commence à travailler pour la presse jeunesse (Astrapi…) et « adulte » (Le Monde, Politis, Libération…), puis recentre son travail en tant qu'auteur-illustrateur sur l'édition jeunesse.
-Il travaille à Die dans la Drôme, dans un atelier qu'il partage avec un autre auteur illustrateur, Benjamin Chaud. En 2018, ce dernier précise : « Il était dans ma classe à Strasbourg. La présence de l'autre nous motive, on se soutient et on se donne des conseils. »[3].
+Il travaille à Die dans la Drôme, dans un atelier qu'il partage avec un autre auteur illustrateur, Benjamin Chaud. En 2018, ce dernier précise : « Il était dans ma classe à Strasbourg. La présence de l'autre nous motive, on se soutient et on se donne des conseils. ».
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ga%C3%ABtan_Dor%C3%A9mus</t>
+          <t>Gaëtan_Dorémus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bibliographie complète est disponible sur le site de Ricochet[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bibliographie complète est disponible sur le site de Ricochet.
 2000 : Plus tard, Éditions du Rouergue
 2001 : Chien-saucisse, Éditions du Rouergue
 Le livre qui fait peur, texte de Thierry Lenain, Nathan
@@ -597,10 +613,10 @@
 2020 :
 Lou a oublié sa tête, texte Denis Baronnet, Seuil Jeunesse  (ISBN 979-1023512953)
 2021:
-Le Chien Sans Nom[5], texte de Joël Egloff, Albin Michel Jeunesse
+Le Chien Sans Nom, texte de Joël Egloff, Albin Michel Jeunesse
 2023 :
-Ami-amis[6], Rouergue
-En fanfare ![7], Seuil jeunesse, 2023
+Ami-amis, Rouergue
+En fanfare !, Seuil jeunesse, 2023
 </t>
         </is>
       </c>
@@ -611,7 +627,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ga%C3%ABtan_Dor%C3%A9mus</t>
+          <t>Gaëtan_Dorémus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -629,14 +645,16 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix des Incorruptibles 2007[8] pour Jocelyne vache à lait, texte de Richard Marnier
- Prix Enfantaisie 2008[8] pour Une histoire à toutes les sauces, texte de Gilles Barraqué
- Lauréat Catégorie « Books &amp; Seeds » du Prix BolognaRagazzi 2015, Foire du livre de jeunesse de Bologne[9] (Italie) pour  Frigo vide
- Prix Bernard Versele 2019[8],[10] pour Minute papillon !
-Prix Pitchou 2020[8] pour Quatre pattes
-« Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[11] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix des Incorruptibles 2007 pour Jocelyne vache à lait, texte de Richard Marnier
+ Prix Enfantaisie 2008 pour Une histoire à toutes les sauces, texte de Gilles Barraqué
+ Lauréat Catégorie « Books &amp; Seeds » du Prix BolognaRagazzi 2015, Foire du livre de jeunesse de Bologne (Italie) pour  Frigo vide
+ Prix Bernard Versele 2019, pour Minute papillon !
+Prix Pitchou 2020 pour Quatre pattes
+« Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) :
 Rhino des villes, 2010
 Tonio, 2012
 Trois exploits de Till l'Espiègle, texte de Philippe Lechermeier, 2015
